--- a/Assets/EventSheet.xlsx
+++ b/Assets/EventSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u1412161\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Github Projects\EAE6330\PCGGameProject\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F661A6-169C-438F-BEFA-97FD13B1D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80BE975-909E-490B-AB19-AB6AA5B5266A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="家境" sheetId="1" r:id="rId1"/>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2D4A2-2F2E-4E79-AB0F-E681EFB1BEC4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1823B0AC-FCBD-4FA3-982E-DB596D9754E4}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>

--- a/Assets/EventSheet.xlsx
+++ b/Assets/EventSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Github Projects\EAE6330\PCGGameProject\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80BE975-909E-490B-AB19-AB6AA5B5266A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C514BDE2-3386-4F02-B3E4-755F3D6C059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,45 +549,6 @@
     <t>The government wants to demolish your house to build a pig farm.</t>
   </si>
   <si>
-    <t>Because of your poverty, your family couldn't afford to buy food and you were starved to death.</t>
-  </si>
-  <si>
-    <t>Your family couldn't afford to buy food and you had to risk eating pig food to feed yourself, for which you ended up with diarrhea</t>
-  </si>
-  <si>
-    <t>In order to get a bite to eat, you went to the door of the landlord's son to beg for food, only to be beaten up by his houseboys</t>
-  </si>
-  <si>
-    <t>Since you can't even afford to buy food, you starve and eat everything your family can and can't eat, and as a result your family becomes even poorer.</t>
-  </si>
-  <si>
-    <t>Luckily, there's still some left in the house, and you and your family survived the famine.</t>
-  </si>
-  <si>
-    <t>You had to pay a lot of money to buy dog food from scalpers to feed your family.</t>
-  </si>
-  <si>
-    <t>While you can afford to buy food, that food is either spoiled or not meant for human consumption, and as a result you eat the wrong things and become stupid</t>
-  </si>
-  <si>
-    <t>Your family is well-to-do, and you've made a fortune as a scalper selling grain to the hungry at a high price.</t>
-  </si>
-  <si>
-    <t>Your family worked hard for most of your life to buy this house, you said nothing to agree to the government's demolition plan, and you were beaten up by the demolition team</t>
-  </si>
-  <si>
-    <t>The government says it will give you a compensation payment, but when you go to ask for it, the initial official has retired, so naturally your compensation is lost</t>
-  </si>
-  <si>
-    <t>You said you wouldn't agree to move, so the government built a pig farm in front of your house, and you smelled pig manure every day, and you couldn't eat, and your body became thinner and thinner every day</t>
-  </si>
-  <si>
-    <t>You've got some contacts in the government. You convinced the government to demolish your high school bully's house.</t>
-  </si>
-  <si>
-    <t>Your family was the local bully, and the government had to pay you a huge sum of money as compensation for your influence.</t>
-  </si>
-  <si>
     <t>You've been very sick.</t>
   </si>
   <si>
@@ -597,60 +558,12 @@
     <t>You came home and found your girlfriend in bed with another man.</t>
   </si>
   <si>
-    <t>Because you've been in poor health since you were a child, you've been sick and in even poorer health</t>
-  </si>
-  <si>
-    <t>It's a disease that even human medicine can't do anything about, and your body isn't prepared for it, and you're sick and dying.</t>
-  </si>
-  <si>
-    <t>Your family spent a lot of money on your medical treatment and you managed to save your life.</t>
-  </si>
-  <si>
-    <t>It's actually a God-given test for you, and after you're healed, you become fiercer! Stronger! More dominant!</t>
-  </si>
-  <si>
-    <t>This is actually the cells in your body awakening to self-awareness and they demand that you grant them cell rights and allow them to unionize. You have no choice but to agree.</t>
-  </si>
-  <si>
-    <t>You were sick for a whole year, during which time your soul traveled upstream to the Nine Heavens and downstream to the underworld, and you even became one with the highest heaven in the universe. When you woke up, you were a different person.</t>
-  </si>
-  <si>
-    <t>You try to overrate yourself and get stabbed to death.</t>
-  </si>
-  <si>
-    <t>You knew you couldn't beat him, so you had to hand over your wallet and bank card, and you didn't even get to keep your panties.</t>
-  </si>
-  <si>
     <t>幸亏你瘦得像条柴，歹徒居然没能发现黑暗中的你，你躲过了一劫</t>
   </si>
   <si>
-    <t>Luckily, you're as thin as a stick of wood, and the robbers didn't even notice you in the dark, so you dodged a bullet.</t>
-  </si>
-  <si>
-    <t>Luckily you're much bigger than him. You'd have knocked him out with one punch.</t>
-  </si>
-  <si>
     <t>你是如此之强而有力，你反过来洗劫了歹徒</t>
   </si>
   <si>
-    <t>You were so strong and powerful, you robbed the thugs in turn.</t>
-  </si>
-  <si>
-    <t>You're furious, yet you're embarrassed to realize that you're no match for the man, and you've even got a broken knee yourself!</t>
-  </si>
-  <si>
-    <t>Your girlfriend breaks up with you, and you spend months grieving over it, spending countless dollars on alcohol and women in clubs.</t>
-  </si>
-  <si>
-    <t>You joined them in passing, and no one seems to have been harmed in this Shoah</t>
-  </si>
-  <si>
-    <t>You're such a powerhouse, you didn't keep your girlfriend, but you kept your girlfriend's lover. The clown is actually your girlfriend.</t>
-  </si>
-  <si>
-    <t>You left evidence, you blackmailed the guy, you lost your girlfriend, but you gained a lot of money.</t>
-  </si>
-  <si>
     <t>You use YouTube a lot.</t>
   </si>
   <si>
@@ -658,6 +571,93 @@
   </si>
   <si>
     <t>Manhattan Home Prices Plummet in One Year as Feds Step in to Regulate</t>
+  </si>
+  <si>
+    <t>Your family couldn't afford to buy food and you had to risk eating pig food to feed yourself, for which you ended up with diarrhea.(0,a)</t>
+  </si>
+  <si>
+    <t>In order to get a bite to eat, you went to the door of the landlord's son to beg for food, only to be beaten up by his houseboys.(0,0)</t>
+  </si>
+  <si>
+    <t>Because of your poverty, your family couldn't afford to buy food and you were starved to death.(0,0)</t>
+  </si>
+  <si>
+    <t>Since you can't even afford to buy food, you starve and eat everything your family can and can't eat, and as a result your family becomes even poorer.(a,0)</t>
+  </si>
+  <si>
+    <t>Luckily, there's still some left in the house, and you and your family survived the famine.(0,0)</t>
+  </si>
+  <si>
+    <t>You had to pay a lot of money to buy dog food from scalpers to feed your family.(a,0)</t>
+  </si>
+  <si>
+    <t>While you can afford to buy food, that food is either spoiled or not meant for human consumption, and as a result you eat the wrong things and become stupid.(0,0)</t>
+  </si>
+  <si>
+    <t>Your family is well-to-do, and you've made a fortune as a scalper selling grain to the hungry at a high price.(1,0)</t>
+  </si>
+  <si>
+    <t>Your family worked hard for most of your life to buy this house, you said nothing to agree to the government's demolition plan, and you were beaten up by the demolition team.(0,0)</t>
+  </si>
+  <si>
+    <t>The government says it will give you a compensation payment, but when you go to ask for it, the initial official has retired, so naturally your compensation is lost.(a,0)</t>
+  </si>
+  <si>
+    <t>You said you wouldn't agree to move, so the government built a pig farm in front of your house, and you smelled pig manure every day, and you couldn't eat, and your body became thinner and thinner every day.(0,a)</t>
+  </si>
+  <si>
+    <t>You've got some contacts in the government. You convinced the government to demolish your high school bully's house.(0,0)</t>
+  </si>
+  <si>
+    <t>Your family was the local bully, and the government had to pay you a huge sum of money as compensation for your influence.(2,0)</t>
+  </si>
+  <si>
+    <t>Because you've been in poor health since you were a child, you've been sick and in even poorer health.(0,a)</t>
+  </si>
+  <si>
+    <t>It's a disease that even human medicine can't do anything about, and your body isn't prepared for it, and you're sick and dying.(0,z)</t>
+  </si>
+  <si>
+    <t>Your family spent a lot of money on your medical treatment and you managed to save your life.(0,0)</t>
+  </si>
+  <si>
+    <t>It's actually a God-given test for you, and after you're healed, you become fiercer! Stronger! More dominant!(0,2)</t>
+  </si>
+  <si>
+    <t>This is actually the cells in your body awakening to self-awareness and they demand that you grant them cell rights and allow them to unionize. You have no choice but to agree.(0,0)</t>
+  </si>
+  <si>
+    <t>You were sick for a whole year, during which time your soul traveled upstream to the Nine Heavens and downstream to the underworld, and you even became one with the highest heaven in the universe. When you woke up, you were a different person.(0,0)</t>
+  </si>
+  <si>
+    <t>You try to overrate yourself and get stabbed to death.(0,z)</t>
+  </si>
+  <si>
+    <t>You knew you couldn't beat him, so you had to hand over your wallet and bank card, and you didn't even get to keep your panties.(a,0)</t>
+  </si>
+  <si>
+    <t>Luckily, you're as thin as a stick of wood, and the robbers didn't even notice you in the dark, so you dodged a bullet.(0,0)</t>
+  </si>
+  <si>
+    <t>Luckily you're much bigger than him. You'd have knocked him out with one punch.(0,0)</t>
+  </si>
+  <si>
+    <t>You were so strong and powerful, you robbed the thugs in turn.(1,0)</t>
+  </si>
+  <si>
+    <t>You're furious, yet you're embarrassed to realize that you're no match for the man, and you've even got a broken knee yourself!(0,0)</t>
+  </si>
+  <si>
+    <t>Your girlfriend breaks up with you, and you spend months grieving over it, spending countless dollars on alcohol and women in clubs.(a,0)</t>
+  </si>
+  <si>
+    <t>You joined them in passing, and no one seems to have been harmed in this Shoah.(0,0)</t>
+  </si>
+  <si>
+    <t>You're such a powerhouse, you didn't keep your girlfriend, but you kept your girlfriend's lover. The clown is actually your girlfriend.(0,0)</t>
+  </si>
+  <si>
+    <t>You left evidence, you blackmailed the guy, you lost your girlfriend, but you gained a lot of money.(1,0)</t>
   </si>
 </sst>
 </file>
@@ -978,7 +978,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2D4A2-2F2E-4E79-AB0F-E681EFB1BEC4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,18 +1135,18 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,26 +1189,26 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,15 +1216,15 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,18 +1235,18 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1577,7 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +1686,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
